--- a/target/classes/com/AP/qa/data/testdata.xlsx
+++ b/target/classes/com/AP/qa/data/testdata.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>sunjai190688@gmail.com</t>
+    <t>Faded Short Sleeve T-shirt</t>
   </si>
   <si>
-    <t>iDeliver1</t>
+    <t>Blouse</t>
   </si>
 </sst>
 </file>
@@ -356,12 +356,12 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/target/classes/com/AP/qa/data/testdata.xlsx
+++ b/target/classes/com/AP/qa/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Faded Short Sleeve T-shirt</t>
   </si>
   <si>
     <t>Blouse</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yadunandan  nagar , Tifra </t>
+  </si>
+  <si>
+    <t>Bilaspur</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>iDeliver1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>78905</t>
+  </si>
+  <si>
+    <t>8871088713</t>
+  </si>
+  <si>
+    <t>7891593575</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -57,8 +129,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -379,12 +460,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -393,7 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
